--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5688816666666666</v>
+        <v>1.364465666666667</v>
       </c>
       <c r="H2">
-        <v>1.706645</v>
+        <v>4.093397</v>
       </c>
       <c r="I2">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="J2">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>18.10603194275556</v>
+        <v>22.20731229189122</v>
       </c>
       <c r="R2">
-        <v>162.9542874848</v>
+        <v>199.8658106270209</v>
       </c>
       <c r="S2">
-        <v>0.0002048527412895418</v>
+        <v>0.0002832443608052808</v>
       </c>
       <c r="T2">
-        <v>0.0002048527412895418</v>
+        <v>0.0002832443608052808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5688816666666666</v>
+        <v>1.364465666666667</v>
       </c>
       <c r="H3">
-        <v>1.706645</v>
+        <v>4.093397</v>
       </c>
       <c r="I3">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="J3">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>48.61843532889723</v>
+        <v>116.6115726000439</v>
       </c>
       <c r="R3">
-        <v>437.565917960075</v>
+        <v>1049.504153400395</v>
       </c>
       <c r="S3">
-        <v>0.0005500719200000014</v>
+        <v>0.001487328583912356</v>
       </c>
       <c r="T3">
-        <v>0.0005500719200000014</v>
+        <v>0.001487328583912356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5688816666666666</v>
+        <v>1.364465666666667</v>
       </c>
       <c r="H4">
-        <v>1.706645</v>
+        <v>4.093397</v>
       </c>
       <c r="I4">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="J4">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>22.01323183233555</v>
+        <v>58.14467315044421</v>
       </c>
       <c r="R4">
-        <v>198.11908649102</v>
+        <v>523.3020583539979</v>
       </c>
       <c r="S4">
-        <v>0.0002490590373281892</v>
+        <v>0.0007416093656116634</v>
       </c>
       <c r="T4">
-        <v>0.0002490590373281892</v>
+        <v>0.0007416093656116635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5688816666666666</v>
+        <v>1.364465666666667</v>
       </c>
       <c r="H5">
-        <v>1.706645</v>
+        <v>4.093397</v>
       </c>
       <c r="I5">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="J5">
-        <v>0.001790814942693061</v>
+        <v>0.004273090055562101</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>69.54454965603777</v>
+        <v>138.0611006849946</v>
       </c>
       <c r="R5">
-        <v>625.90094690434</v>
+        <v>1242.549906164952</v>
       </c>
       <c r="S5">
-        <v>0.0007868312440753289</v>
+        <v>0.001760907745232801</v>
       </c>
       <c r="T5">
-        <v>0.0007868312440753291</v>
+        <v>0.001760907745232801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>944.946013</v>
       </c>
       <c r="I6">
-        <v>0.9915497599785732</v>
+        <v>0.9864275102545285</v>
       </c>
       <c r="J6">
-        <v>0.991549759978573</v>
+        <v>0.9864275102545286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>10025.06244447879</v>
+        <v>5126.478377169012</v>
       </c>
       <c r="R6">
-        <v>90225.56200030913</v>
+        <v>46138.30539452111</v>
       </c>
       <c r="S6">
-        <v>0.1134241632757094</v>
+        <v>0.06538594459508412</v>
       </c>
       <c r="T6">
-        <v>0.1134241632757094</v>
+        <v>0.06538594459508414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>944.946013</v>
       </c>
       <c r="I7">
-        <v>0.9915497599785732</v>
+        <v>0.9864275102545285</v>
       </c>
       <c r="J7">
-        <v>0.991549759978573</v>
+        <v>0.9864275102545286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>26919.36320813045</v>
@@ -883,10 +883,10 @@
         <v>242274.268873174</v>
       </c>
       <c r="S7">
-        <v>0.304567304663393</v>
+        <v>0.3433444680271464</v>
       </c>
       <c r="T7">
-        <v>0.3045673046633929</v>
+        <v>0.3433444680271465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>944.946013</v>
       </c>
       <c r="I8">
-        <v>0.9915497599785732</v>
+        <v>0.9864275102545285</v>
       </c>
       <c r="J8">
-        <v>0.991549759978573</v>
+        <v>0.9864275102545286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>12188.42562642504</v>
+        <v>13422.48921145455</v>
       </c>
       <c r="R8">
-        <v>109695.8306378254</v>
+        <v>120802.4029030909</v>
       </c>
       <c r="S8">
-        <v>0.1379005852563893</v>
+        <v>0.1711978616386831</v>
       </c>
       <c r="T8">
-        <v>0.1379005852563893</v>
+        <v>0.1711978616386832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>944.946013</v>
       </c>
       <c r="I9">
-        <v>0.9915497599785732</v>
+        <v>0.9864275102545285</v>
       </c>
       <c r="J9">
-        <v>0.991549759978573</v>
+        <v>0.9864275102545286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>38505.86672878861</v>
+        <v>31870.90981956484</v>
       </c>
       <c r="R9">
-        <v>346552.8005590974</v>
+        <v>286838.1883760836</v>
       </c>
       <c r="S9">
-        <v>0.4356577067830815</v>
+        <v>0.4064992359936148</v>
       </c>
       <c r="T9">
-        <v>0.4356577067830814</v>
+        <v>0.4064992359936148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3826353333333333</v>
+        <v>1.561621333333333</v>
       </c>
       <c r="H10">
-        <v>1.147906</v>
+        <v>4.684864</v>
       </c>
       <c r="I10">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901351</v>
       </c>
       <c r="J10">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901352</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>12.17829290993778</v>
+        <v>25.41611231283911</v>
       </c>
       <c r="R10">
-        <v>109.60463618944</v>
+        <v>228.745010815552</v>
       </c>
       <c r="S10">
-        <v>0.0001377859430887576</v>
+        <v>0.0003241711735117974</v>
       </c>
       <c r="T10">
-        <v>0.0001377859430887576</v>
+        <v>0.0003241711735117975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3826353333333333</v>
+        <v>1.561621333333333</v>
       </c>
       <c r="H11">
-        <v>1.147906</v>
+        <v>4.684864</v>
       </c>
       <c r="I11">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901351</v>
       </c>
       <c r="J11">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901352</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>32.70123172930111</v>
+        <v>133.4611224998045</v>
       </c>
       <c r="R11">
-        <v>294.31108556371</v>
+        <v>1201.15010249824</v>
       </c>
       <c r="S11">
-        <v>0.0003699837150664148</v>
+        <v>0.001702237075695804</v>
       </c>
       <c r="T11">
-        <v>0.0003699837150664148</v>
+        <v>0.001702237075695804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3826353333333333</v>
+        <v>1.561621333333333</v>
       </c>
       <c r="H12">
-        <v>1.147906</v>
+        <v>4.684864</v>
       </c>
       <c r="I12">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901351</v>
       </c>
       <c r="J12">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901352</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>14.80631349796177</v>
+        <v>66.5461683863751</v>
       </c>
       <c r="R12">
-        <v>133.256821481656</v>
+        <v>598.9155154773759</v>
       </c>
       <c r="S12">
-        <v>0.0001675195270857456</v>
+        <v>0.0008487666891378773</v>
       </c>
       <c r="T12">
-        <v>0.0001675195270857456</v>
+        <v>0.0008487666891378777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3826353333333333</v>
+        <v>1.561621333333333</v>
       </c>
       <c r="H13">
-        <v>1.147906</v>
+        <v>4.684864</v>
       </c>
       <c r="I13">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901351</v>
       </c>
       <c r="J13">
-        <v>0.001204519520818343</v>
+        <v>0.004890521434901352</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>46.77633943641688</v>
+        <v>158.0099561316693</v>
       </c>
       <c r="R13">
-        <v>420.987054927752</v>
+        <v>1422.089605185024</v>
       </c>
       <c r="S13">
-        <v>0.000529230335577425</v>
+        <v>0.002015346496555872</v>
       </c>
       <c r="T13">
-        <v>0.000529230335577425</v>
+        <v>0.002015346496555873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.73284</v>
+        <v>1.407825</v>
       </c>
       <c r="H14">
-        <v>5.19852</v>
+        <v>4.223475</v>
       </c>
       <c r="I14">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="J14">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>55.15181492053335</v>
+        <v>22.913005575075</v>
       </c>
       <c r="R14">
-        <v>496.3663342848001</v>
+        <v>206.217050175675</v>
       </c>
       <c r="S14">
-        <v>0.0006239909721403743</v>
+        <v>0.0002922451637972284</v>
       </c>
       <c r="T14">
-        <v>0.0006239909721403743</v>
+        <v>0.0002922451637972284</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.73284</v>
+        <v>1.407825</v>
       </c>
       <c r="H15">
-        <v>5.19852</v>
+        <v>4.223475</v>
       </c>
       <c r="I15">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="J15">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>148.0940139431334</v>
+        <v>120.317199037125</v>
       </c>
       <c r="R15">
-        <v>1332.8461254882</v>
+        <v>1082.854791334125</v>
       </c>
       <c r="S15">
-        <v>0.001675544637319658</v>
+        <v>0.001534592195904585</v>
       </c>
       <c r="T15">
-        <v>0.001675544637319658</v>
+        <v>0.001534592195904585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.73284</v>
+        <v>1.407825</v>
       </c>
       <c r="H16">
-        <v>5.19852</v>
+        <v>4.223475</v>
       </c>
       <c r="I16">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="J16">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>67.05332740261333</v>
+        <v>59.99236659284999</v>
       </c>
       <c r="R16">
-        <v>603.4799466235199</v>
+        <v>539.9312993356499</v>
       </c>
       <c r="S16">
-        <v>0.0007586454047158831</v>
+        <v>0.000765175871147294</v>
       </c>
       <c r="T16">
-        <v>0.0007586454047158829</v>
+        <v>0.0007651758711472943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.73284</v>
+        <v>1.407825</v>
       </c>
       <c r="H17">
-        <v>5.19852</v>
+        <v>4.223475</v>
       </c>
       <c r="I17">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="J17">
-        <v>0.005454905557915521</v>
+        <v>0.00440887825500804</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>211.8359308924267</v>
+        <v>142.4483399034</v>
       </c>
       <c r="R17">
-        <v>1906.52337803184</v>
+        <v>1282.0350591306</v>
       </c>
       <c r="S17">
-        <v>0.002396724543739606</v>
+        <v>0.001816865024158933</v>
       </c>
       <c r="T17">
-        <v>0.002396724543739606</v>
+        <v>0.001816865024158933</v>
       </c>
     </row>
   </sheetData>
